--- a/课程设计/利未记查经/赎罪祭献祭流程表.xlsx
+++ b/课程设计/利未记查经/赎罪祭献祭流程表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\天伦教育\利未记\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\我的圣经\课程设计\利未记查经\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A635920-BFE2-442D-B51C-52512EE0FE93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20B0D5D-8293-4531-984C-909EF95EAC0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{CBE4952C-F9A7-43BA-B757-284A77565789}"/>
   </bookViews>
@@ -28,16 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>第四步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祭祀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>官长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>祭祀要为他们赎罪、他们必蒙赦免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,14 +374,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +700,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" x14ac:dyDescent="0.4"/>
@@ -714,159 +714,159 @@
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
+      <c r="A2" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="15"/>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
+      <c r="A6" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="16" t="s">
-        <v>24</v>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
-        <v>2</v>
+      <c r="A10" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
-        <v>4</v>
+      <c r="A14" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="9"/>
@@ -874,31 +874,31 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
-        <v>5</v>
+      <c r="A18" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -906,23 +906,23 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
